--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17AC17-BA62-43BC-9CDF-04A27AC0A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B626BCF-2328-4E9A-9067-F5F5B7391EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,121 @@
   <si>
     <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メロンブックスのリンクが追加されます。
+一部外部リンクボタンの位置が調整されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面スイッチの時背景色がランダムに青か紫になるように変更されます。</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
+上記の変更により左上の経験値が大幅に増えます。
+モモトークエディターの機能が追加されます。&lt;br/&gt;(外部のプロジェクトをお借りしてます、自分の開発したものではありません。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青輝石の無料配布が一日一回に変更されます。
+青輝石の数がページをリロードしてもリセットされないように変更されます。
+クレジットの初期値は50,000,000に固定され、ギャンブルはAPを消費するように変更されます。
+上記の変更に伴いガイドのテキストが調整されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬コミ当選のお知らせにサークルカットの画像とWebカタログのリンクが追加されます。</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップデートがあった時のメッセージテキストが調整されます。</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語切替の機能が追加されます。
+多言語対応のためフォントが変更されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お知らせ画面が変更され、パッチノートとお知らせが同じ画面に統合されます。</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロフィール画面が追加されます。&lt;br/&gt;(左上のレベルをクリックすると移動できます)</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経験値の表示方法が変更されます。（総訪問数は変わりません）
+サイト紹介のガイド機能が追加されます。
+ミッションとお知らせのボタンが追加されます。
+ミッションの内容が追加されます。
+一部ボタンのアイコンと配置位置が変更されます。
+非推奨の端末から閲覧した時のメッセージが追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイトの訪問数に基づいて経験値を計算する機能が追加されます。
+pixivFANBOXのリンクが追加されます。
+一部テキストが調整されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APを999までチャージできる機能を追加されます。
+仮の背景イラストが追加されます。
+カーソルをアイコンに置いた時のポップアップ説明が追加されます。
+一部テキストが調整されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β版公開</t>
   </si>
 </sst>
 </file>
@@ -81,9 +196,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,25 +493,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B626BCF-2328-4E9A-9067-F5F5B7391EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F686D1EE-81D3-4FA3-8CFA-3BB66E63F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F686D1EE-81D3-4FA3-8CFA-3BB66E63F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6A690-3D70-4958-B2C2-347AAEE4230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,12 +54,6 @@
   </si>
   <si>
     <t>2024-11-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
-上記の変更により左上の経験値が大幅に増えます。
-モモトークエディターの機能が追加されます。&lt;br/&gt;(外部のプロジェクトをお借りしてます、自分の開発したものではありません。)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,6 +144,148 @@
   </si>
   <si>
     <t>β版公開</t>
+  </si>
+  <si>
+    <t>增加了Melonbooks的链接。
+调整了部分外部链接的按钮的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过场动画的背景色现在会随机变成蓝色或紫色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青辉石的免费领取次数变为每日一次。
+现在刷新页面后青辉石的数量也不会重置。
+信用点的初始值固定为50,000,000，且现在每次点击赌博需要消费AP。
+修改了引导的文本内容以适配上述修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了circle cut（摊位图？）和Web Catalog的链接到C105出摊的通知中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了网站有更新时的提示信息文本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了切换语言的功能。
+更换了网站使用的字体以适配多语言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了通知画面的样式，更新日志现在整合到了通知画面中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了个人资料画面。&lt;br/&gt;(点击左上角的Lv按钮即可移动到个人资料画面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了经验值的表示方法。（总访问量不变）
+增加了网站功能介绍的功能。
+增加了任务和通知的按钮。
+增加了任务内容。
+调整了部分按钮的图标和位置。
+增加了从手机端访问时的提示信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了根据网站访问量计算经验值的功能。
+增加了pixivFANBOX的链接。
+修改了部分文本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了使AP恢复到999的功能。
+增加了临时用的背景图。
+增加了当鼠标移动到图标上的时候的气泡提示。
+修改了部分文本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β版公开</t>
+  </si>
+  <si>
+    <t>The background color will randomly become blue or purple when switch the page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The free claim for Pyroxene is now limited to once a day.
+The amount of Pyroxene will no longer be reset after refreshing the page.
+The initial value of credit points is fixed at 50,000,000, and gambling will cost AP for each click now.
+The guide text has been updated to reflect the above changes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added C105 circle cut and Web Catalog link in the announcement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated text in the message which appears when the site is updated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature added to switch languages.
+Changed the font to support multiple languages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added link to Melonbooks.
+Adjusted the position of some external link buttons.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The announcement page has been updated to integrate patch notes and announcements into the same page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile page added.&lt;br/&gt;(Click the level icon in the upper left to access it)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed the data source for website traffic statistics from Page Views to Requests.
+After this update, the experience points on the top left will increase significantly.
+Feature added: MomoTalk Editor.&lt;br/&gt;(An external project, not made by me)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed experience display method. (total visit count remains unchanged)
+Added guide function for site introduction.
+Added buttons for Missions and Announcements.
+Added content to the Missions section.
+Updated icons and positions of some buttons.
+Added message for viewing on non-recommended devices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature added to calculate experience based on site visit count.
+Added link to pixivFANBOX.
+Adjusted some text.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added functionality to charge up to 999 AP.
+Added temporary background illustration.
+Added pop-up descriptions when hovering over icons.
+Adjusted some text.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta version released.</t>
+  </si>
+  <si>
+    <t>网站访问量的统计数据源由Page Views数改为Requests数。
+上述更新后左上角的经验值会大幅增加。
+增加了MomoTalk编辑器的功能。&lt;br/&gt;(借了其他大佬的项目来用，不是我自己写的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
+上記の変更により左上の経験値が大幅に増えます。
+モモトークエディターの機能が追加されます。&lt;br/&gt;(外部のプロジェクトをお借りしてます、自分の開発したものではありません)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -536,87 +674,355 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="49.8" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="33.6" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="104.4" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58.2" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6A690-3D70-4958-B2C2-347AAEE4230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E934A3E-7AEC-41BE-93C7-DEB8D46B0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -633,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -901,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E934A3E-7AEC-41BE-93C7-DEB8D46B0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5E909-3596-4DBD-B8D9-C15187FEB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,22 @@
     <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
 上記の変更により左上の経験値が大幅に増えます。
 モモトークエディターの機能が追加されます。&lt;br/&gt;(外部のプロジェクトをお借りしてます、自分の開発したものではありません)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务界面重做成了游戏内的样式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewaled tasks page to in-game style.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミッションのページがゲーム内仕様にリニューアルされます。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -655,105 +671,113 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="78" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -765,11 +789,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -789,105 +813,113 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="78" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -899,11 +931,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -923,105 +955,113 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="78" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5E909-3596-4DBD-B8D9-C15187FEB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373B3A6-6E40-4CBD-A616-AE18741C54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,28 @@
   </si>
   <si>
     <t>ミッションのページがゲーム内仕様にリニューアルされます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在刷新页面后信用点的数量也不会重置。
+信用点变为0时，可消耗1200青辉石进行恢复。
+调整了任务页面的部分样式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of credit will no longer be reset after refreshing the page.
+When credit becomes 0, you can cost 1200 pyroxenes to recharge.
+Adjusted some style of tasks page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クレジットの数がページをリロードしてもリセットさせないように変更されます。
+クレジットが0になった場合、1200青輝石を消費してチャージできます。
+ミッション画面の仕様が一部調整されます。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,11 +669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -671,113 +693,121 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -789,11 +819,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -813,113 +843,121 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -931,11 +969,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -955,113 +993,121 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="49.8" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373B3A6-6E40-4CBD-A616-AE18741C54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08FAB5E-4F2E-446E-BFD3-3B2DB16A4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08FAB5E-4F2E-446E-BFD3-3B2DB16A4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA2648-F4BF-41D2-ADDB-2B0CD054657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -308,21 +308,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现在刷新页面后信用点的数量也不会重置。
-信用点变为0时，可消耗1200青辉石进行恢复。
-调整了任务页面的部分样式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The amount of credit will no longer be reset after refreshing the page.
 When credit becomes 0, you can cost 1200 pyroxenes to recharge.
 Adjusted some style of tasks page.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>クレジットの数がページをリロードしてもリセットさせないように変更されます。
+    <t>クレジットの数がページをリロードしてもリセットされないように変更されます。
 クレジットが0になった場合、1200青輝石を消費してチャージできます。
 ミッション画面の仕様が一部調整されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在刷新页面后信用点的数量也不会被重置。
+信用点变为0时，可消耗1200青辉石进行恢复。
+调整了任务页面的部分样式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -696,7 +696,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
@@ -971,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -996,7 +996,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA2648-F4BF-41D2-ADDB-2B0CD054657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96B41B-F77C-4CB6-AB8D-266BBF6EA1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,12 +325,28 @@
 调整了任务页面的部分样式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025-02-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面左下角新增了一个Spotify的音乐播放器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added a Spotify music player at the left bottom in home page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホーム画面の左下にSpotifyの音楽プレイヤーが追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,21 +685,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,123 +707,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="78" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -819,21 +843,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,123 +865,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="78" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -969,21 +1001,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,123 +1023,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="78" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="49.8" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96B41B-F77C-4CB6-AB8D-266BBF6EA1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D60CC-97BA-40A9-9113-F4ACCCE0342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,12 +341,31 @@
     <t>ホーム画面の左下にSpotifyの音楽プレイヤーが追加されます。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025-03-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロフィール画面の代理ちゃんの絵が変更されます。
+ミッション画面に代理ちゃんの絵が追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换了个人资料页面的OC的图。
+任务画面增加了OC的图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed my OC's picture on profile page.
+Added OC's picture on tasks page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +375,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -388,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,6 +438,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,129 +749,137 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -843,7 +891,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -867,287 +1081,137 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D60CC-97BA-40A9-9113-F4ACCCE0342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A062D-6F0F-4337-9DB5-381FC090E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,12 +360,60 @@
 Added OC's picture on tasks page.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025-04-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当サイトの日別アクセス数を表示するグラフが追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added the graph to show the daily access of this website.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>增加了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示本网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>每日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问量的图表。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +443,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -422,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -443,6 +498,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,21 +783,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="3"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,139 +805,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="78" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -891,21 +957,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="3"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,139 +979,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="78" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1057,21 +1131,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="3"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,139 +1153,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="78" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A062D-6F0F-4337-9DB5-381FC090E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C622DF-09DD-4EED-A988-7B45B5340CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>Added the graph to show the daily access of this website.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グラフに訪問者数の表示も追加されます。
+新機能の追加につき「お知らせ」ボタンの説明テキストが調整されます。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,7 +393,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>显示本网站</t>
+      <t>显示本网站的</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +413,56 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>访问量的图表。</t>
+      <t>请求数的图表。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added daily visitors to the graph.
+Adjusted the explain text of "Notice" button.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图表中增加显示每日的访问人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改了【通知】按钮的说明文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +508,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,6 +566,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,7 +851,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="133" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -807,319 +1057,153 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48.6" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="78" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="78" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1131,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1155,145 +1239,153 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48.6" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="47.4" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:2" ht="67.2" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="78" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="78" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="49.95" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="104.4" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="58.2" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C622DF-09DD-4EED-A988-7B45B5340CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2541-FE33-4979-BC7B-A5EC2308C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,9 +100,6 @@
   <si>
     <t>2024-11-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>プロフィール画面が追加されます。&lt;br/&gt;(左上のレベルをクリックすると移動できます)</t>
   </si>
   <si>
     <t>2024-11-05</t>
@@ -279,12 +276,6 @@
     <t>网站访问量的统计数据源由Page Views数改为Requests数。
 上述更新后左上角的经验值会大幅增加。
 增加了MomoTalk编辑器的功能。&lt;br/&gt;(借了其他大佬的项目来用，不是我自己写的)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
-上記の変更により左上の経験値が大幅に増えます。
-モモトークエディターの機能が追加されます。&lt;br/&gt;(外部のプロジェクトをお借りしてます、自分の開発したものではありません)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,12 +457,80 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経験値・レベルの計算方法が変更されます。&lt;br/&gt;（詳しくは「ホームページ公開一周年」のお知らせをご覧ください）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
+上記の変更により左上の経験値が大幅に増えます。
+モモトークエディターの機能が追加されます。&lt;br/&gt;（外部のプロジェクトをお借りしてます、自分の開発したものではありません）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロフィール画面が追加されます。&lt;br/&gt;（左上のレベルをクリックすると移動できます）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经验值和等级的计算方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。&lt;br/&gt;（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细请看【主页公开一周年】的通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed the calculate method of EXP and Level.&lt;br/&gt;(Please view the "Home Page Release 1st Anniversary" notice for details)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +571,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -851,21 +917,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,154 +941,162 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
+      <c r="A6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48.6" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="78" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1033,21 +1107,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,39 +1131,39 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7" t="s">
         <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
+      <c r="A6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>61</v>
@@ -1097,114 +1171,122 @@
     </row>
     <row r="7" spans="1:2" ht="48.6" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="78" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:2" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1215,21 +1297,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="133" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,154 +1321,162 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48.6" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="78" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="47.4" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="67.2" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="17" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34.950000000000003" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34.200000000000003" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="49.95" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="104.4" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="58.2" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="37.200000000000003" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2541-FE33-4979-BC7B-A5EC2308C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE441D-7810-461D-B9D0-879424A38012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,44 @@
   </si>
   <si>
     <t>Changed the calculate method of EXP and Level.&lt;br/&gt;(Please view the "Home Page Release 1st Anniversary" notice for details)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロフィール画面にゲームアカウントのタブが追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面增加了游戏账号的展示标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added Game Account tab in the profile page.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,11 +955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -941,161 +979,169 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="48.6" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="47.45" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="78" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="78" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34.9" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34.15" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="49.9" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="104.45" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.15" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1107,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFACB5-61BF-4FE7-B257-EDC62EBAA566}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1131,161 +1177,169 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="48.6" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="47.45" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="78" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="78" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34.9" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34.15" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="49.9" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="104.45" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.15" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1297,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D9942-3D26-40C7-A8A0-986B7A52B1B6}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1321,161 +1375,169 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48.6" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48.6" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48.6" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="48.6" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48.6" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="47.45" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="47.45" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="67.150000000000006" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" ht="67.150000000000006" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="78" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="78" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34.9" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="34.9" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34.15" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" ht="34.15" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="49.9" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="49.9" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33.6" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="104.45" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="104.45" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="58.15" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="81.599999999999994" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.15" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="37.15" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
     </row>

--- a/public/data/patchNote.xlsx
+++ b/public/data/patchNote.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE441D-7810-461D-B9D0-879424A38012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC0EC93-FFBA-4A45-AEAA-670B3730BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>経験値・レベルの計算方法が変更されます。&lt;br/&gt;（詳しくは「ホームページ公開一周年」のお知らせをご覧ください）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>サイトのアクセス統計がPage Viewsの数からRequestsの数に変更されます。
 上記の変更により左上の経験値が大幅に増えます。
 モモトークエディターの機能が追加されます。&lt;br/&gt;（外部のプロジェクトをお借りしてます、自分の開発したものではありません）</t>
@@ -476,6 +472,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>プロフィール画面にゲームアカウントのタブが追加されます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面增加了游戏账号的展示标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added Game Account tab in the profile page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>修改了</t>
     </r>
@@ -497,7 +531,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>。&lt;br/&gt;（</t>
+      <t>。&lt;br/&gt;&lt;br/&gt;&lt;p style='padding-left: 1vw'&gt;</t>
     </r>
     <r>
       <rPr>
@@ -507,7 +541,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>详细请看【主页公开一周年】的通知</t>
+      <t>等级：</t>
     </r>
     <r>
       <rPr>
@@ -517,21 +551,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changed the calculate method of EXP and Level.&lt;br/&gt;(Please view the "Home Page Release 1st Anniversary" notice for details)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>プロフィール画面にゲームアカウントのタブが追加されます。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在个人信息</t>
+      <t>&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;</t>
     </r>
     <r>
       <rPr>
@@ -541,7 +561,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>页面增加了游戏账号的展示标签</t>
+      <t>现在固定变成【？？】</t>
     </r>
     <r>
       <rPr>
@@ -551,16 +571,130 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added Game Account tab in the profile page.</t>
+      <t>&lt;/p&gt;&lt;p style='padding-left: 1vw'&gt;&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经验值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今日访问量小于99的时候：今日访问量 / 99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今日访问量大于等于99的时候：今日访问量 / 过去一年总访问量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>経験値・レベルの計算方法が変更されます。&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;p style='padding-left: 1vw'&gt;レベル：&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;固定で【？？】になります&lt;/p&gt;&lt;p style='padding-left: 1vw'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>経験値：&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99未満の場合：本日の訪問者数 / 99&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：本日の訪問者数 / 過去一年間の総訪問者数&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Changed the calculate method of EXP and Level.&lt;br/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;br/&gt;&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;Now fixed as 【??】&lt;/p&gt;&lt;p style='padding-left: 1vw'&gt;&lt;br/&gt;Experience points:&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;When today's visits are below 99: today's visits / 99&lt;/p&gt;&lt;p style='padding-left: 2vw'&gt;When today's visits are 99 or more: today's visits / total visits in the past year&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +1093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -979,18 +1113,18 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="78.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
@@ -1062,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="78" customHeight="1">
@@ -1110,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="104.45" customHeight="1">
@@ -1157,7 +1291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1177,10 +1311,10 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48.6" customHeight="1">
@@ -1188,7 +1322,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
@@ -1355,7 +1489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1375,18 +1509,18 @@
     </row>
     <row r="2" spans="1:2" ht="48.6" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="63.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.6" customHeight="1">
